--- a/LeaveMangementAPI/LeaveMangementAPI/files/user.xlsx
+++ b/LeaveMangementAPI/LeaveMangementAPI/files/user.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{84DDBF11-87F9-460D-A343-D6380DB78EC8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1FD91208-759A-43CD-ADCF-A44E19B23E90}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>职位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,14 +55,6 @@
   </si>
   <si>
     <t>证件号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,8 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -396,22 +390,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +430,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -445,15 +439,22 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="2">
+        <v>43137</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{0D06113F-C675-4800-A9E2-B7EF1CAE8ABE}">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{751B676D-25AD-4D46-978D-3A48BA0E880B}">
+      <formula1>"居民身份证,海外护照"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/LeaveMangementAPI/LeaveMangementAPI/files/user.xlsx
+++ b/LeaveMangementAPI/LeaveMangementAPI/files/user.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1FD91208-759A-43CD-ADCF-A44E19B23E90}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{13AA0F67-7374-49DC-A24E-D282DE23C058}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,15 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -394,7 +402,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -407,13 +415,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -447,11 +455,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>COUNTIF(I:I,I2)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{0D06113F-C675-4800-A9E2-B7EF1CAE8ABE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{D027684F-17C5-48C9-ADD4-BF3604F7C62D}">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{751B676D-25AD-4D46-978D-3A48BA0E880B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{C70666E6-4BEA-4865-AEDC-BB9B2C40BF36}">
       <formula1>"居民身份证,海外护照"</formula1>
     </dataValidation>
   </dataValidations>

--- a/LeaveMangementAPI/LeaveMangementAPI/files/user.xlsx
+++ b/LeaveMangementAPI/LeaveMangementAPI/files/user.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{13AA0F67-7374-49DC-A24E-D282DE23C058}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEE7119-FCC9-490C-8B73-6474AB1AF659}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>职位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>入职时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,10 +403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -413,7 +417,7 @@
     <col min="11" max="11" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -447,8 +451,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K2" s="2">
         <v>43137</v>
       </c>
